--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Sema6d</t>
+  </si>
+  <si>
+    <t>Tyrobp</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema6d</t>
-  </si>
-  <si>
-    <t>Tyrobp</t>
   </si>
 </sst>
 </file>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.641409</v>
+        <v>61.612503</v>
       </c>
       <c r="H2">
-        <v>123.282818</v>
+        <v>123.225006</v>
       </c>
       <c r="I2">
-        <v>0.4168550508657654</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J2">
-        <v>0.3494068724346086</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.0240055</v>
+        <v>1.3732825</v>
       </c>
       <c r="N2">
-        <v>2.048011</v>
+        <v>2.746565</v>
       </c>
       <c r="O2">
-        <v>0.0008333425726394369</v>
+        <v>0.0006846256161672609</v>
       </c>
       <c r="P2">
-        <v>0.0005557160823828745</v>
+        <v>0.0004567341519753394</v>
       </c>
       <c r="Q2">
-        <v>63.12114184374951</v>
+        <v>84.6113721510975</v>
       </c>
       <c r="R2">
-        <v>252.4845673749981</v>
+        <v>338.44548860439</v>
       </c>
       <c r="S2">
-        <v>0.0003473830605062203</v>
+        <v>0.0003333708043580719</v>
       </c>
       <c r="T2">
-        <v>0.0001941710183070135</v>
+        <v>0.0002118904057577395</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.641409</v>
+        <v>61.612503</v>
       </c>
       <c r="H3">
-        <v>123.282818</v>
+        <v>123.225006</v>
       </c>
       <c r="I3">
-        <v>0.4168550508657654</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J3">
-        <v>0.3494068724346086</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.143117</v>
       </c>
       <c r="O3">
-        <v>3.882319283390512E-05</v>
+        <v>2.378281339515841E-05</v>
       </c>
       <c r="P3">
-        <v>3.883398017021874E-05</v>
+        <v>2.37993353983083E-05</v>
       </c>
       <c r="Q3">
-        <v>2.940644510617667</v>
+        <v>2.939265530617</v>
       </c>
       <c r="R3">
-        <v>17.643867063706</v>
+        <v>17.635593183702</v>
       </c>
       <c r="S3">
-        <v>1.618364402354894E-05</v>
+        <v>1.158077560087216E-05</v>
       </c>
       <c r="T3">
-        <v>1.356885955546374E-05</v>
+        <v>1.104110741993377E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.641409</v>
+        <v>61.612503</v>
       </c>
       <c r="H4">
-        <v>123.282818</v>
+        <v>123.225006</v>
       </c>
       <c r="I4">
-        <v>0.4168550508657654</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J4">
-        <v>0.3494068724346086</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>543.0669859999999</v>
+        <v>624.5770873333335</v>
       </c>
       <c r="N4">
-        <v>1629.200958</v>
+        <v>1873.731262</v>
       </c>
       <c r="O4">
-        <v>0.4419515707960406</v>
+        <v>0.3113718213547005</v>
       </c>
       <c r="P4">
-        <v>0.4420743705938034</v>
+        <v>0.3115881324415233</v>
       </c>
       <c r="Q4">
-        <v>33475.41419842327</v>
+        <v>38481.75766705627</v>
       </c>
       <c r="R4">
-        <v>200852.4851905396</v>
+        <v>230890.5460023376</v>
       </c>
       <c r="S4">
-        <v>0.1842297445243884</v>
+        <v>0.1516190339481753</v>
       </c>
       <c r="T4">
-        <v>0.154463823212679</v>
+        <v>0.1445535341002821</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.641409</v>
+        <v>61.612503</v>
       </c>
       <c r="H5">
-        <v>123.282818</v>
+        <v>123.225006</v>
       </c>
       <c r="I5">
-        <v>0.4168550508657654</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J5">
-        <v>0.3494068724346086</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>2.355389666666667</v>
+        <v>2.804308</v>
       </c>
       <c r="N5">
-        <v>7.066169</v>
+        <v>5.608616</v>
       </c>
       <c r="O5">
-        <v>0.001916831974426256</v>
+        <v>0.001398037980111724</v>
       </c>
       <c r="P5">
-        <v>0.001917364581603963</v>
+        <v>0.0009326728013046551</v>
       </c>
       <c r="Q5">
-        <v>145.1895377973737</v>
+        <v>172.780435062924</v>
       </c>
       <c r="R5">
-        <v>871.1372267842421</v>
+        <v>691.1217402516959</v>
       </c>
       <c r="S5">
-        <v>0.0007990410902005827</v>
+        <v>0.0006807589943276607</v>
       </c>
       <c r="T5">
-        <v>0.0006699403617751326</v>
+        <v>0.0004326902585518092</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.641409</v>
+        <v>61.612503</v>
       </c>
       <c r="H6">
-        <v>123.282818</v>
+        <v>123.225006</v>
       </c>
       <c r="I6">
-        <v>0.4168550508657654</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J6">
-        <v>0.3494068724346086</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,90 +809,90 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>682.2988893333332</v>
+        <v>968.3463336666667</v>
       </c>
       <c r="N6">
-        <v>2046.896668</v>
+        <v>2905.039001</v>
       </c>
       <c r="O6">
-        <v>0.5552594314640599</v>
+        <v>0.4827518775997289</v>
       </c>
       <c r="P6">
-        <v>0.5554137147620395</v>
+        <v>0.4830872470074519</v>
       </c>
       <c r="Q6">
-        <v>42057.86489764173</v>
+        <v>59662.2413880765</v>
       </c>
       <c r="R6">
-        <v>252347.1893858504</v>
+        <v>357973.448328459</v>
       </c>
       <c r="S6">
-        <v>0.2314626985466467</v>
+        <v>0.2350706399824119</v>
       </c>
       <c r="T6">
-        <v>0.194065368982292</v>
+        <v>0.2241162661957566</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.35119866666667</v>
+        <v>61.612503</v>
       </c>
       <c r="H7">
-        <v>37.053596</v>
+        <v>123.225006</v>
       </c>
       <c r="I7">
-        <v>0.0835259873512383</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J7">
-        <v>0.1050169139613236</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.0240055</v>
+        <v>408.7395633333333</v>
       </c>
       <c r="N7">
-        <v>2.048011</v>
+        <v>1226.21869</v>
       </c>
       <c r="O7">
-        <v>0.0008333425726394369</v>
+        <v>0.2037698546358964</v>
       </c>
       <c r="P7">
-        <v>0.0005557160823828745</v>
+        <v>0.2039114142623464</v>
       </c>
       <c r="Q7">
-        <v>12.64769536625933</v>
+        <v>25183.46757209369</v>
       </c>
       <c r="R7">
-        <v>75.88617219755601</v>
+        <v>151100.8054325621</v>
       </c>
       <c r="S7">
-        <v>6.960576118152999E-05</v>
+        <v>0.09922345693722916</v>
       </c>
       <c r="T7">
-        <v>5.835958801052618E-05</v>
+        <v>0.09459960924712278</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>37.053596</v>
       </c>
       <c r="I8">
-        <v>0.0835259873512383</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J8">
-        <v>0.1050169139613236</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.04770566666666667</v>
+        <v>1.3732825</v>
       </c>
       <c r="N8">
-        <v>0.143117</v>
+        <v>2.746565</v>
       </c>
       <c r="O8">
-        <v>3.882319283390512E-05</v>
+        <v>0.0006846256161672609</v>
       </c>
       <c r="P8">
-        <v>3.883398017021874E-05</v>
+        <v>0.0004567341519753394</v>
       </c>
       <c r="Q8">
-        <v>0.5892221665257777</v>
+        <v>16.96168498295667</v>
       </c>
       <c r="R8">
-        <v>5.302999498731999</v>
+        <v>101.77010989774</v>
       </c>
       <c r="S8">
-        <v>3.242745513579444E-06</v>
+        <v>6.682943938007213E-05</v>
       </c>
       <c r="T8">
-        <v>4.07822475431161E-06</v>
+        <v>6.371516420314358E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>37.053596</v>
       </c>
       <c r="I9">
-        <v>0.0835259873512383</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J9">
-        <v>0.1050169139613236</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>543.0669859999999</v>
+        <v>0.04770566666666667</v>
       </c>
       <c r="N9">
-        <v>1629.200958</v>
+        <v>0.143117</v>
       </c>
       <c r="O9">
-        <v>0.4419515707960406</v>
+        <v>2.378281339515841E-05</v>
       </c>
       <c r="P9">
-        <v>0.4420743705938034</v>
+        <v>2.37993353983083E-05</v>
       </c>
       <c r="Q9">
-        <v>6707.528233393885</v>
+        <v>0.5892221665257777</v>
       </c>
       <c r="R9">
-        <v>60367.75410054496</v>
+        <v>5.302999498731999</v>
       </c>
       <c r="S9">
-        <v>0.03691444131216998</v>
+        <v>2.321549250489923E-06</v>
       </c>
       <c r="T9">
-        <v>0.04642528614115576</v>
+        <v>3.320046368923109E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>37.053596</v>
       </c>
       <c r="I10">
-        <v>0.0835259873512383</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J10">
-        <v>0.1050169139613236</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>2.355389666666667</v>
+        <v>624.5770873333335</v>
       </c>
       <c r="N10">
-        <v>7.066169</v>
+        <v>1873.731262</v>
       </c>
       <c r="O10">
-        <v>0.001916831974426256</v>
+        <v>0.3113718213547005</v>
       </c>
       <c r="P10">
-        <v>0.001917364581603963</v>
+        <v>0.3115881324415233</v>
       </c>
       <c r="Q10">
-        <v>29.09188571041378</v>
+        <v>7714.275688302018</v>
       </c>
       <c r="R10">
-        <v>261.826971393724</v>
+        <v>69428.48119471816</v>
       </c>
       <c r="S10">
-        <v>0.0001601052832503766</v>
+        <v>0.03039442838318046</v>
       </c>
       <c r="T10">
-        <v>0.0002013557112987927</v>
+        <v>0.04346705613407782</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,164 +1107,164 @@
         <v>37.053596</v>
       </c>
       <c r="I11">
-        <v>0.0835259873512383</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J11">
-        <v>0.1050169139613236</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>682.2988893333332</v>
+        <v>2.804308</v>
       </c>
       <c r="N11">
-        <v>2046.896668</v>
+        <v>5.608616</v>
       </c>
       <c r="O11">
-        <v>0.5552594314640599</v>
+        <v>0.001398037980111724</v>
       </c>
       <c r="P11">
-        <v>0.5554137147620395</v>
+        <v>0.0009326728013046551</v>
       </c>
       <c r="Q11">
-        <v>8427.209132202013</v>
+        <v>34.63656523052266</v>
       </c>
       <c r="R11">
-        <v>75844.88218981812</v>
+        <v>207.819391383136</v>
       </c>
       <c r="S11">
-        <v>0.04637859224912284</v>
+        <v>0.0001364688849446864</v>
       </c>
       <c r="T11">
-        <v>0.05832783429610425</v>
+        <v>0.0001301093873228481</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.556859</v>
+        <v>12.35119866666667</v>
       </c>
       <c r="H12">
-        <v>1.670577</v>
+        <v>37.053596</v>
       </c>
       <c r="I12">
-        <v>0.003765804360021349</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J12">
-        <v>0.004734731848287172</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.0240055</v>
+        <v>968.3463336666667</v>
       </c>
       <c r="N12">
-        <v>2.048011</v>
+        <v>2905.039001</v>
       </c>
       <c r="O12">
-        <v>0.0008333425726394369</v>
+        <v>0.4827518775997289</v>
       </c>
       <c r="P12">
-        <v>0.0005557160823828745</v>
+        <v>0.4830872470074519</v>
       </c>
       <c r="Q12">
-        <v>0.5702266787245001</v>
+        <v>11960.23794525529</v>
       </c>
       <c r="R12">
-        <v>3.421360072347</v>
+        <v>107642.1415072976</v>
       </c>
       <c r="S12">
-        <v>3.138205093437E-06</v>
+        <v>0.04712361994323207</v>
       </c>
       <c r="T12">
-        <v>2.631166633863574E-06</v>
+        <v>0.0673914642345079</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.556859</v>
+        <v>12.35119866666667</v>
       </c>
       <c r="H13">
-        <v>1.670577</v>
+        <v>37.053596</v>
       </c>
       <c r="I13">
-        <v>0.003765804360021349</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J13">
-        <v>0.004734731848287172</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.04770566666666667</v>
+        <v>408.7395633333333</v>
       </c>
       <c r="N13">
-        <v>0.143117</v>
+        <v>1226.21869</v>
       </c>
       <c r="O13">
-        <v>3.882319283390512E-05</v>
+        <v>0.2037698546358964</v>
       </c>
       <c r="P13">
-        <v>3.883398017021874E-05</v>
+        <v>0.2039114142623464</v>
       </c>
       <c r="Q13">
-        <v>0.02656532983433333</v>
+        <v>5048.423549656582</v>
       </c>
       <c r="R13">
-        <v>0.239087968509</v>
+        <v>45435.81194690923</v>
       </c>
       <c r="S13">
-        <v>1.462005488438695E-07</v>
+        <v>0.01989090800328567</v>
       </c>
       <c r="T13">
-        <v>1.838684827076872E-07</v>
+        <v>0.02844597713227745</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.556859</v>
+        <v>52.3642575</v>
       </c>
       <c r="H14">
-        <v>1.670577</v>
+        <v>104.728515</v>
       </c>
       <c r="I14">
-        <v>0.003765804360021349</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J14">
-        <v>0.004734731848287172</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>543.0669859999999</v>
+        <v>1.3732825</v>
       </c>
       <c r="N14">
-        <v>1629.200958</v>
+        <v>2.746565</v>
       </c>
       <c r="O14">
-        <v>0.4419515707960406</v>
+        <v>0.0006846256161672609</v>
       </c>
       <c r="P14">
-        <v>0.4420743705938034</v>
+        <v>0.0004567341519753394</v>
       </c>
       <c r="Q14">
-        <v>302.4117387569739</v>
+        <v>71.91091845024376</v>
       </c>
       <c r="R14">
-        <v>2721.705648812766</v>
+        <v>287.643673800975</v>
       </c>
       <c r="S14">
-        <v>0.001664303152222014</v>
+        <v>0.0002833307168577163</v>
       </c>
       <c r="T14">
-        <v>0.002093103601761987</v>
+        <v>0.000180084937774363</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>52.3642575</v>
+      </c>
+      <c r="H15">
+        <v>104.728515</v>
+      </c>
+      <c r="I15">
+        <v>0.4138476711460002</v>
+      </c>
+      <c r="J15">
+        <v>0.3942883119107905</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G15">
-        <v>0.556859</v>
-      </c>
-      <c r="H15">
-        <v>1.670577</v>
-      </c>
-      <c r="I15">
-        <v>0.003765804360021349</v>
-      </c>
-      <c r="J15">
-        <v>0.004734731848287172</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M15">
-        <v>2.355389666666667</v>
+        <v>0.04770566666666667</v>
       </c>
       <c r="N15">
-        <v>7.066169</v>
+        <v>0.143117</v>
       </c>
       <c r="O15">
-        <v>0.001916831974426256</v>
+        <v>2.378281339515841E-05</v>
       </c>
       <c r="P15">
-        <v>0.001917364581603963</v>
+        <v>2.37993353983083E-05</v>
       </c>
       <c r="Q15">
-        <v>1.311619934390333</v>
+        <v>2.4980718135425</v>
       </c>
       <c r="R15">
-        <v>11.804579409513</v>
+        <v>14.988430881255</v>
       </c>
       <c r="S15">
-        <v>7.218414206722728E-06</v>
+        <v>9.842461936886207E-06</v>
       </c>
       <c r="T15">
-        <v>9.078207149298093E-06</v>
+        <v>9.383799778797701E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.556859</v>
+        <v>52.3642575</v>
       </c>
       <c r="H16">
-        <v>1.670577</v>
+        <v>104.728515</v>
       </c>
       <c r="I16">
-        <v>0.003765804360021349</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J16">
-        <v>0.004734731848287172</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,42 +1429,42 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>682.2988893333332</v>
+        <v>624.5770873333335</v>
       </c>
       <c r="N16">
-        <v>2046.896668</v>
+        <v>1873.731262</v>
       </c>
       <c r="O16">
-        <v>0.5552594314640599</v>
+        <v>0.3113718213547005</v>
       </c>
       <c r="P16">
-        <v>0.5554137147620395</v>
+        <v>0.3115881324415233</v>
       </c>
       <c r="Q16">
-        <v>379.9442772152706</v>
+        <v>32705.51542972266</v>
       </c>
       <c r="R16">
-        <v>3419.498494937436</v>
+        <v>196233.092578336</v>
       </c>
       <c r="S16">
-        <v>0.002090998387950332</v>
+        <v>0.1288605031281312</v>
       </c>
       <c r="T16">
-        <v>0.002629735004259315</v>
+        <v>0.1228555587518041</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.1416125</v>
+        <v>52.3642575</v>
       </c>
       <c r="H17">
-        <v>58.283225</v>
+        <v>104.728515</v>
       </c>
       <c r="I17">
-        <v>0.1970725289715218</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J17">
-        <v>0.1651857062729746</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,42 +1491,42 @@
         <v>0.5</v>
       </c>
       <c r="M17">
-        <v>1.0240055</v>
+        <v>2.804308</v>
       </c>
       <c r="N17">
-        <v>2.048011</v>
+        <v>5.608616</v>
       </c>
       <c r="O17">
-        <v>0.0008333425726394369</v>
+        <v>0.001398037980111724</v>
       </c>
       <c r="P17">
-        <v>0.0005557160823828745</v>
+        <v>0.0009326728013046551</v>
       </c>
       <c r="Q17">
-        <v>29.84117147886876</v>
+        <v>146.84550622131</v>
       </c>
       <c r="R17">
-        <v>119.364685915475</v>
+        <v>587.38202488524</v>
       </c>
       <c r="S17">
-        <v>0.0001642289282896879</v>
+        <v>0.0005785747622428952</v>
       </c>
       <c r="T17">
-        <v>9.179635355566569E-05</v>
+        <v>0.0003677419843915206</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,60 +1535,60 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>29.1416125</v>
+        <v>52.3642575</v>
       </c>
       <c r="H18">
-        <v>58.283225</v>
+        <v>104.728515</v>
       </c>
       <c r="I18">
-        <v>0.1970725289715218</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J18">
-        <v>0.1651857062729746</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.04770566666666667</v>
+        <v>968.3463336666667</v>
       </c>
       <c r="N18">
-        <v>0.143117</v>
+        <v>2905.039001</v>
       </c>
       <c r="O18">
-        <v>3.882319283390512E-05</v>
+        <v>0.4827518775997289</v>
       </c>
       <c r="P18">
-        <v>3.883398017021874E-05</v>
+        <v>0.4830872470074519</v>
       </c>
       <c r="Q18">
-        <v>1.390220052054167</v>
+        <v>50706.73676530226</v>
       </c>
       <c r="R18">
-        <v>8.341320312324999</v>
+        <v>304240.4205918135</v>
       </c>
       <c r="S18">
-        <v>7.650984794526743E-06</v>
+        <v>0.1997857402860068</v>
       </c>
       <c r="T18">
-        <v>6.414818441808274E-06</v>
+        <v>0.1904756551281993</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>29.1416125</v>
+        <v>52.3642575</v>
       </c>
       <c r="H19">
-        <v>58.283225</v>
+        <v>104.728515</v>
       </c>
       <c r="I19">
-        <v>0.1970725289715218</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J19">
-        <v>0.1651857062729746</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>543.0669859999999</v>
+        <v>408.7395633333333</v>
       </c>
       <c r="N19">
-        <v>1629.200958</v>
+        <v>1226.21869</v>
       </c>
       <c r="O19">
-        <v>0.4419515707960406</v>
+        <v>0.2037698546358964</v>
       </c>
       <c r="P19">
-        <v>0.4420743705938034</v>
+        <v>0.2039114142623464</v>
       </c>
       <c r="Q19">
-        <v>15825.84766755492</v>
+        <v>21403.34374482423</v>
       </c>
       <c r="R19">
-        <v>94955.08600532955</v>
+        <v>128420.0624689453</v>
       </c>
       <c r="S19">
-        <v>0.08709651373971226</v>
+        <v>0.08432967979082474</v>
       </c>
       <c r="T19">
-        <v>0.07302436713171814</v>
+        <v>0.08039988730884247</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>29.1416125</v>
+        <v>0.177088</v>
       </c>
       <c r="H20">
-        <v>58.283225</v>
+        <v>0.531264</v>
       </c>
       <c r="I20">
-        <v>0.1970725289715218</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J20">
-        <v>0.1651857062729746</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>2.355389666666667</v>
+        <v>1.3732825</v>
       </c>
       <c r="N20">
-        <v>7.066169</v>
+        <v>2.746565</v>
       </c>
       <c r="O20">
-        <v>0.001916831974426256</v>
+        <v>0.0006846256161672609</v>
       </c>
       <c r="P20">
-        <v>0.001917364581603963</v>
+        <v>0.0004567341519753394</v>
       </c>
       <c r="Q20">
-        <v>68.63985295250417</v>
+        <v>0.24319185136</v>
       </c>
       <c r="R20">
-        <v>411.8391177150251</v>
+        <v>1.45915110816</v>
       </c>
       <c r="S20">
-        <v>0.0003777549248136577</v>
+        <v>9.581816372914153E-07</v>
       </c>
       <c r="T20">
-        <v>0.0003167212225950371</v>
+        <v>9.135300388987581E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,76 +1706,76 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>29.1416125</v>
+        <v>0.177088</v>
       </c>
       <c r="H21">
-        <v>58.283225</v>
+        <v>0.531264</v>
       </c>
       <c r="I21">
-        <v>0.1970725289715218</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J21">
-        <v>0.1651857062729746</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>682.2988893333332</v>
+        <v>0.04770566666666667</v>
       </c>
       <c r="N21">
-        <v>2046.896668</v>
+        <v>0.143117</v>
       </c>
       <c r="O21">
-        <v>0.5552594314640599</v>
+        <v>2.378281339515841E-05</v>
       </c>
       <c r="P21">
-        <v>0.5554137147620395</v>
+        <v>2.37993353983083E-05</v>
       </c>
       <c r="Q21">
-        <v>19883.28984213238</v>
+        <v>0.008448101098666666</v>
       </c>
       <c r="R21">
-        <v>119299.7390527943</v>
+        <v>0.07603290988799999</v>
       </c>
       <c r="S21">
-        <v>0.1094263803939116</v>
+        <v>3.328571782917583E-08</v>
       </c>
       <c r="T21">
-        <v>0.09174640674666397</v>
+        <v>4.760188765861123E-08</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
       <c r="E22">
         <v>3</v>
       </c>
@@ -1783,60 +1783,60 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>43.23806633333334</v>
+        <v>0.177088</v>
       </c>
       <c r="H22">
-        <v>129.714199</v>
+        <v>0.531264</v>
       </c>
       <c r="I22">
-        <v>0.2924009465896376</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J22">
-        <v>0.3676346251506875</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1.0240055</v>
+        <v>624.5770873333335</v>
       </c>
       <c r="N22">
-        <v>2.048011</v>
+        <v>1873.731262</v>
       </c>
       <c r="O22">
-        <v>0.0008333425726394369</v>
+        <v>0.3113718213547005</v>
       </c>
       <c r="P22">
-        <v>0.0005557160823828745</v>
+        <v>0.3115881324415233</v>
       </c>
       <c r="Q22">
-        <v>44.27601773469817</v>
+        <v>110.6051072416853</v>
       </c>
       <c r="R22">
-        <v>265.656106408189</v>
+        <v>995.445965175168</v>
       </c>
       <c r="S22">
-        <v>0.0002436701570732151</v>
+        <v>0.0004357867344524937</v>
       </c>
       <c r="T22">
-        <v>0.0002043004736370367</v>
+        <v>0.0006232183810179914</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,60 +1845,60 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>43.23806633333334</v>
+        <v>0.177088</v>
       </c>
       <c r="H23">
-        <v>129.714199</v>
+        <v>0.531264</v>
       </c>
       <c r="I23">
-        <v>0.2924009465896376</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J23">
-        <v>0.3676346251506875</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.04770566666666667</v>
+        <v>2.804308</v>
       </c>
       <c r="N23">
-        <v>0.143117</v>
+        <v>5.608616</v>
       </c>
       <c r="O23">
-        <v>3.882319283390512E-05</v>
+        <v>0.001398037980111724</v>
       </c>
       <c r="P23">
-        <v>3.883398017021874E-05</v>
+        <v>0.0009326728013046551</v>
       </c>
       <c r="Q23">
-        <v>2.062700779809223</v>
+        <v>0.4966092951039999</v>
       </c>
       <c r="R23">
-        <v>18.564307018283</v>
+        <v>2.979655770623999</v>
       </c>
       <c r="S23">
-        <v>1.135193833426589E-05</v>
+        <v>1.956652350051365E-06</v>
       </c>
       <c r="T23">
-        <v>1.42767157429876E-05</v>
+        <v>1.865471668301387E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>43.23806633333334</v>
+        <v>0.177088</v>
       </c>
       <c r="H24">
-        <v>129.714199</v>
+        <v>0.531264</v>
       </c>
       <c r="I24">
-        <v>0.2924009465896376</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J24">
-        <v>0.3676346251506875</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,39 +1925,39 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>543.0669859999999</v>
+        <v>968.3463336666667</v>
       </c>
       <c r="N24">
-        <v>1629.200958</v>
+        <v>2905.039001</v>
       </c>
       <c r="O24">
-        <v>0.4419515707960406</v>
+        <v>0.4827518775997289</v>
       </c>
       <c r="P24">
-        <v>0.4420743705938034</v>
+        <v>0.4830872470074519</v>
       </c>
       <c r="Q24">
-        <v>23481.1663641114</v>
+        <v>171.4825155363627</v>
       </c>
       <c r="R24">
-        <v>211330.4972770026</v>
+        <v>1543.342639827264</v>
       </c>
       <c r="S24">
-        <v>0.1292270576475395</v>
+        <v>0.0006756451607428667</v>
       </c>
       <c r="T24">
-        <v>0.162521845521979</v>
+        <v>0.0009662397910065626</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>43.23806633333334</v>
+        <v>0.177088</v>
       </c>
       <c r="H25">
-        <v>129.714199</v>
+        <v>0.531264</v>
       </c>
       <c r="I25">
-        <v>0.2924009465896376</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J25">
-        <v>0.3676346251506875</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>2.355389666666667</v>
+        <v>408.7395633333333</v>
       </c>
       <c r="N25">
-        <v>7.066169</v>
+        <v>1226.21869</v>
       </c>
       <c r="O25">
-        <v>0.001916831974426256</v>
+        <v>0.2037698546358964</v>
       </c>
       <c r="P25">
-        <v>0.001917364581603963</v>
+        <v>0.2039114142623464</v>
       </c>
       <c r="Q25">
-        <v>101.8424946481812</v>
+        <v>72.38287179157332</v>
       </c>
       <c r="R25">
-        <v>916.5824518336311</v>
+        <v>651.4458461241599</v>
       </c>
       <c r="S25">
-        <v>0.0005604834837755213</v>
+        <v>0.0002851902241676504</v>
       </c>
       <c r="T25">
-        <v>0.0007048896092351778</v>
+        <v>0.0004078503904237053</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,341 +2016,341 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>43.23806633333334</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H26">
-        <v>129.714199</v>
+        <v>0.075668</v>
       </c>
       <c r="I26">
-        <v>0.2924009465896376</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J26">
-        <v>0.3676346251506875</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>682.2988893333332</v>
+        <v>1.3732825</v>
       </c>
       <c r="N26">
-        <v>2046.896668</v>
+        <v>2.746565</v>
       </c>
       <c r="O26">
-        <v>0.5552594314640599</v>
+        <v>0.0006846256161672609</v>
       </c>
       <c r="P26">
-        <v>0.5554137147620395</v>
+        <v>0.0004567341519753394</v>
       </c>
       <c r="Q26">
-        <v>29501.28463615432</v>
+        <v>0.03463784673666667</v>
       </c>
       <c r="R26">
-        <v>265511.5617253889</v>
+        <v>0.20782708042</v>
       </c>
       <c r="S26">
-        <v>0.1623583833629151</v>
+        <v>1.364739341091563E-07</v>
       </c>
       <c r="T26">
-        <v>0.2041893128300933</v>
+        <v>1.301142011944932E-07</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.9433796666666666</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H27">
-        <v>2.830139</v>
+        <v>0.075668</v>
       </c>
       <c r="I27">
-        <v>0.006379681861815685</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J27">
-        <v>0.008021150332118549</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>1.0240055</v>
+        <v>0.04770566666666667</v>
       </c>
       <c r="N27">
-        <v>2.048011</v>
+        <v>0.143117</v>
       </c>
       <c r="O27">
-        <v>0.0008333425726394369</v>
+        <v>2.378281339515841E-05</v>
       </c>
       <c r="P27">
-        <v>0.0005557160823828745</v>
+        <v>2.37993353983083E-05</v>
       </c>
       <c r="Q27">
-        <v>0.9660259672548334</v>
+        <v>0.001203264128444444</v>
       </c>
       <c r="R27">
-        <v>5.796155803529</v>
+        <v>0.010829377156</v>
       </c>
       <c r="S27">
-        <v>5.316460495346635E-06</v>
+        <v>4.740889080942953E-09</v>
       </c>
       <c r="T27">
-        <v>4.457482238769013E-06</v>
+        <v>6.779942995105625E-09</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.9433796666666666</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H28">
-        <v>2.830139</v>
+        <v>0.075668</v>
       </c>
       <c r="I28">
-        <v>0.006379681861815685</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J28">
-        <v>0.008021150332118549</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.04770566666666667</v>
+        <v>624.5770873333335</v>
       </c>
       <c r="N28">
-        <v>0.143117</v>
+        <v>1873.731262</v>
       </c>
       <c r="O28">
-        <v>3.882319283390512E-05</v>
+        <v>0.3113718213547005</v>
       </c>
       <c r="P28">
-        <v>3.883398017021874E-05</v>
+        <v>0.3115881324415233</v>
       </c>
       <c r="Q28">
-        <v>0.04500455591811111</v>
+        <v>15.75349968144623</v>
       </c>
       <c r="R28">
-        <v>0.405041003263</v>
+        <v>141.781497133016</v>
       </c>
       <c r="S28">
-        <v>2.476796191402372E-07</v>
+        <v>6.20691607610365E-05</v>
       </c>
       <c r="T28">
-        <v>3.114931929398352E-07</v>
+        <v>8.876507434132441E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.9433796666666666</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H29">
-        <v>2.830139</v>
+        <v>0.075668</v>
       </c>
       <c r="I29">
-        <v>0.006379681861815685</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J29">
-        <v>0.008021150332118549</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M29">
-        <v>543.0669859999999</v>
+        <v>2.804308</v>
       </c>
       <c r="N29">
-        <v>1629.200958</v>
+        <v>5.608616</v>
       </c>
       <c r="O29">
-        <v>0.4419515707960406</v>
+        <v>0.001398037980111724</v>
       </c>
       <c r="P29">
-        <v>0.4420743705938034</v>
+        <v>0.0009326728013046551</v>
       </c>
       <c r="Q29">
-        <v>512.3183522303513</v>
+        <v>0.07073212591466667</v>
       </c>
       <c r="R29">
-        <v>4610.865170073162</v>
+        <v>0.424392755488</v>
       </c>
       <c r="S29">
-        <v>0.002819510420008451</v>
+        <v>2.786862464305632E-07</v>
       </c>
       <c r="T29">
-        <v>0.003545944984509585</v>
+        <v>2.656993701757117E-07</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.9433796666666666</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H30">
-        <v>2.830139</v>
+        <v>0.075668</v>
       </c>
       <c r="I30">
-        <v>0.006379681861815685</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J30">
-        <v>0.008021150332118549</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>2.355389666666667</v>
+        <v>968.3463336666667</v>
       </c>
       <c r="N30">
-        <v>7.066169</v>
+        <v>2905.039001</v>
       </c>
       <c r="O30">
-        <v>0.001916831974426256</v>
+        <v>0.4827518775997289</v>
       </c>
       <c r="P30">
-        <v>0.001917364581603963</v>
+        <v>0.4830872470074519</v>
       </c>
       <c r="Q30">
-        <v>2.222026718610111</v>
+        <v>24.42427679196311</v>
       </c>
       <c r="R30">
-        <v>19.998240467491</v>
+        <v>219.818491127668</v>
       </c>
       <c r="S30">
-        <v>1.222877817939553E-05</v>
+        <v>9.623222733535727E-05</v>
       </c>
       <c r="T30">
-        <v>1.537946955052497E-05</v>
+        <v>0.0001376216579815018</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.9433796666666666</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H31">
-        <v>2.830139</v>
+        <v>0.075668</v>
       </c>
       <c r="I31">
-        <v>0.006379681861815685</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J31">
-        <v>0.008021150332118549</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>682.2988893333332</v>
+        <v>408.7395633333333</v>
       </c>
       <c r="N31">
-        <v>2046.896668</v>
+        <v>1226.21869</v>
       </c>
       <c r="O31">
-        <v>0.5552594314640599</v>
+        <v>0.2037698546358964</v>
       </c>
       <c r="P31">
-        <v>0.5554137147620395</v>
+        <v>0.2039114142623464</v>
       </c>
       <c r="Q31">
-        <v>643.6668987863168</v>
+        <v>10.30950175943556</v>
       </c>
       <c r="R31">
-        <v>5793.002089076852</v>
+        <v>92.78551583491999</v>
       </c>
       <c r="S31">
-        <v>0.003542378523513352</v>
+        <v>4.061968038925614E-05</v>
       </c>
       <c r="T31">
-        <v>0.00445505690262673</v>
+        <v>5.809018368001772E-05</v>
       </c>
     </row>
   </sheetData>
